--- a/natmiOut/OldD4/LR-pairs_lrc2p/Tnc-Ptprb.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Tnc-Ptprb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +95,6 @@
   </si>
   <si>
     <t>Ptprb</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.50641692653158</v>
+        <v>5.996239666666667</v>
       </c>
       <c r="H2">
-        <v>1.50641692653158</v>
+        <v>17.988719</v>
       </c>
       <c r="I2">
-        <v>0.009795224936274315</v>
+        <v>0.02748578043016502</v>
       </c>
       <c r="J2">
-        <v>0.009795224936274315</v>
+        <v>0.02925508126773497</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>149.720833061918</v>
+        <v>160.469513</v>
       </c>
       <c r="N2">
-        <v>149.720833061918</v>
+        <v>481.408539</v>
       </c>
       <c r="O2">
-        <v>0.9901855593992133</v>
+        <v>0.9881921872772522</v>
       </c>
       <c r="P2">
-        <v>0.9901855593992133</v>
+        <v>0.9908580394792582</v>
       </c>
       <c r="Q2">
-        <v>225.5419971788823</v>
+        <v>962.2136591412824</v>
       </c>
       <c r="R2">
-        <v>225.5419971788823</v>
+        <v>8659.922932271542</v>
       </c>
       <c r="S2">
-        <v>0.009699090282965906</v>
+        <v>0.02716123348230707</v>
       </c>
       <c r="T2">
-        <v>0.009699090282965906</v>
+        <v>0.02898763246975424</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.50641692653158</v>
+        <v>5.996239666666667</v>
       </c>
       <c r="H3">
-        <v>1.50641692653158</v>
+        <v>17.988719</v>
       </c>
       <c r="I3">
-        <v>0.009795224936274315</v>
+        <v>0.02748578043016502</v>
       </c>
       <c r="J3">
-        <v>0.009795224936274315</v>
+        <v>0.02925508126773497</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.360093196324031</v>
+        <v>0.3902430000000001</v>
       </c>
       <c r="N3">
-        <v>0.360093196324031</v>
+        <v>1.170729</v>
       </c>
       <c r="O3">
-        <v>0.002381492780570517</v>
+        <v>0.00240316728411606</v>
       </c>
       <c r="P3">
-        <v>0.002381492780570517</v>
+        <v>0.002409650323426259</v>
       </c>
       <c r="Q3">
-        <v>0.5424504860713796</v>
+        <v>2.339990556239</v>
       </c>
       <c r="R3">
-        <v>0.5424504860713796</v>
+        <v>21.059915006151</v>
       </c>
       <c r="S3">
-        <v>2.332725746980159E-05</v>
+        <v>6.605292830817002E-05</v>
       </c>
       <c r="T3">
-        <v>2.332725746980159E-05</v>
+        <v>7.049451603865905E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.50641692653158</v>
+        <v>5.996239666666667</v>
       </c>
       <c r="H4">
-        <v>1.50641692653158</v>
+        <v>17.988719</v>
       </c>
       <c r="I4">
-        <v>0.009795224936274315</v>
+        <v>0.02748578043016502</v>
       </c>
       <c r="J4">
-        <v>0.009795224936274315</v>
+        <v>0.02925508126773497</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.0436919293360523</v>
+        <v>0.1305423333333333</v>
       </c>
       <c r="N4">
-        <v>0.0436919293360523</v>
+        <v>0.391627</v>
       </c>
       <c r="O4">
-        <v>0.0002889585677963607</v>
+        <v>0.0008038967121994246</v>
       </c>
       <c r="P4">
-        <v>0.0002889585677963607</v>
+        <v>0.0008060653893535184</v>
       </c>
       <c r="Q4">
-        <v>0.06581826190465088</v>
+        <v>0.7827631173125557</v>
       </c>
       <c r="R4">
-        <v>0.06581826190465088</v>
+        <v>7.044868055813</v>
       </c>
       <c r="S4">
-        <v>2.830414168829025E-06</v>
+        <v>2.209572852004495E-05</v>
       </c>
       <c r="T4">
-        <v>2.830414168829025E-06</v>
+        <v>2.358150847264561E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.50641692653158</v>
+        <v>5.996239666666667</v>
       </c>
       <c r="H5">
-        <v>1.50641692653158</v>
+        <v>17.988719</v>
       </c>
       <c r="I5">
-        <v>0.009795224936274315</v>
+        <v>0.02748578043016502</v>
       </c>
       <c r="J5">
-        <v>0.009795224936274315</v>
+        <v>0.02925508126773497</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.0802056363119</v>
+        <v>0.08596833333333333</v>
       </c>
       <c r="N5">
-        <v>1.0802056363119</v>
+        <v>0.257905</v>
       </c>
       <c r="O5">
-        <v>0.007143989252419803</v>
+        <v>0.0005294042074723974</v>
       </c>
       <c r="P5">
-        <v>0.007143989252419803</v>
+        <v>0.0005308323844914145</v>
       </c>
       <c r="Q5">
-        <v>1.627240054675062</v>
+        <v>0.5154867304105555</v>
       </c>
       <c r="R5">
-        <v>1.627240054675062</v>
+        <v>4.639380573695</v>
       </c>
       <c r="S5">
-        <v>6.997698166977815E-05</v>
+        <v>1.455108780539184E-05</v>
       </c>
       <c r="T5">
-        <v>6.997698166977815E-05</v>
+        <v>1.552954454784187E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>138.372223684612</v>
+        <v>5.996239666666667</v>
       </c>
       <c r="H6">
-        <v>138.372223684612</v>
+        <v>17.988719</v>
       </c>
       <c r="I6">
-        <v>0.8997423170515768</v>
+        <v>0.02748578043016502</v>
       </c>
       <c r="J6">
-        <v>0.8997423170515768</v>
+        <v>0.02925508126773497</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>149.720833061918</v>
+        <v>1.310681</v>
       </c>
       <c r="N6">
-        <v>149.720833061918</v>
+        <v>2.621362</v>
       </c>
       <c r="O6">
-        <v>0.9901855593992133</v>
+        <v>0.008071344518960036</v>
       </c>
       <c r="P6">
-        <v>0.9901855593992133</v>
+        <v>0.005395412423470593</v>
       </c>
       <c r="Q6">
-        <v>20717.20460269017</v>
+        <v>7.859157402546335</v>
       </c>
       <c r="R6">
-        <v>20717.20460269017</v>
+        <v>47.15494441527801</v>
       </c>
       <c r="S6">
-        <v>0.8909118495248599</v>
+        <v>0.0002218472032243515</v>
       </c>
       <c r="T6">
-        <v>0.8909118495248599</v>
+        <v>0.0001578432289215791</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>138.372223684612</v>
+        <v>172.4328083333333</v>
       </c>
       <c r="H7">
-        <v>138.372223684612</v>
+        <v>517.298425</v>
       </c>
       <c r="I7">
-        <v>0.8997423170515768</v>
+        <v>0.7904037483947683</v>
       </c>
       <c r="J7">
-        <v>0.8997423170515768</v>
+        <v>0.8412832210590593</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.360093196324031</v>
+        <v>160.469513</v>
       </c>
       <c r="N7">
-        <v>0.360093196324031</v>
+        <v>481.408539</v>
       </c>
       <c r="O7">
-        <v>0.002381492780570517</v>
+        <v>0.9881921872772522</v>
       </c>
       <c r="P7">
-        <v>0.002381492780570517</v>
+        <v>0.9908580394792582</v>
       </c>
       <c r="Q7">
-        <v>49.82689630905572</v>
+        <v>27670.20877847234</v>
       </c>
       <c r="R7">
-        <v>49.82689630905572</v>
+        <v>249031.8790062511</v>
       </c>
       <c r="S7">
-        <v>0.00214272983243212</v>
+        <v>0.7810708089583651</v>
       </c>
       <c r="T7">
-        <v>0.00214272983243212</v>
+        <v>0.8335922430653748</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>138.372223684612</v>
+        <v>172.4328083333333</v>
       </c>
       <c r="H8">
-        <v>138.372223684612</v>
+        <v>517.298425</v>
       </c>
       <c r="I8">
-        <v>0.8997423170515768</v>
+        <v>0.7904037483947683</v>
       </c>
       <c r="J8">
-        <v>0.8997423170515768</v>
+        <v>0.8412832210590593</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.0436919293360523</v>
+        <v>0.3902430000000001</v>
       </c>
       <c r="N8">
-        <v>0.0436919293360523</v>
+        <v>1.170729</v>
       </c>
       <c r="O8">
-        <v>0.0002889585677963607</v>
+        <v>0.00240316728411606</v>
       </c>
       <c r="P8">
-        <v>0.0002889585677963607</v>
+        <v>0.002409650323426259</v>
       </c>
       <c r="Q8">
-        <v>6.04574941930049</v>
+        <v>67.29069642242501</v>
       </c>
       <c r="R8">
-        <v>6.04574941930049</v>
+        <v>605.616267801825</v>
       </c>
       <c r="S8">
-        <v>0.0002599882513210028</v>
+        <v>0.001899472429385009</v>
       </c>
       <c r="T8">
-        <v>0.0002599882513210028</v>
+        <v>0.002027198385718047</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>138.372223684612</v>
+        <v>172.4328083333333</v>
       </c>
       <c r="H9">
-        <v>138.372223684612</v>
+        <v>517.298425</v>
       </c>
       <c r="I9">
-        <v>0.8997423170515768</v>
+        <v>0.7904037483947683</v>
       </c>
       <c r="J9">
-        <v>0.8997423170515768</v>
+        <v>0.8412832210590593</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>1.0802056363119</v>
+        <v>0.1305423333333333</v>
       </c>
       <c r="N9">
-        <v>1.0802056363119</v>
+        <v>0.391627</v>
       </c>
       <c r="O9">
-        <v>0.007143989252419803</v>
+        <v>0.0008038967121994246</v>
       </c>
       <c r="P9">
-        <v>0.007143989252419803</v>
+        <v>0.0008060653893535184</v>
       </c>
       <c r="Q9">
-        <v>149.4704559331289</v>
+        <v>22.50978114305278</v>
       </c>
       <c r="R9">
-        <v>149.4704559331289</v>
+        <v>202.588030287475</v>
       </c>
       <c r="S9">
-        <v>0.006427749442963755</v>
+        <v>0.0006354029746446554</v>
       </c>
       <c r="T9">
-        <v>0.006427749442963755</v>
+        <v>0.0006781292871395527</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.9123071549377</v>
+        <v>172.4328083333333</v>
       </c>
       <c r="H10">
-        <v>13.9123071549377</v>
+        <v>517.298425</v>
       </c>
       <c r="I10">
-        <v>0.09046245801214881</v>
+        <v>0.7904037483947683</v>
       </c>
       <c r="J10">
-        <v>0.09046245801214881</v>
+        <v>0.8412832210590593</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>149.720833061918</v>
+        <v>0.08596833333333333</v>
       </c>
       <c r="N10">
-        <v>149.720833061918</v>
+        <v>0.257905</v>
       </c>
       <c r="O10">
-        <v>0.9901855593992133</v>
+        <v>0.0005294042074723974</v>
       </c>
       <c r="P10">
-        <v>0.9901855593992133</v>
+        <v>0.0005308323844914145</v>
       </c>
       <c r="Q10">
-        <v>2082.962217050555</v>
+        <v>14.82376114440278</v>
       </c>
       <c r="R10">
-        <v>2082.962217050555</v>
+        <v>133.413850299625</v>
       </c>
       <c r="S10">
-        <v>0.08957461959138741</v>
+        <v>0.0004184430700021445</v>
       </c>
       <c r="T10">
-        <v>0.08957461959138741</v>
+        <v>0.0004465803782673982</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.9123071549377</v>
+        <v>172.4328083333333</v>
       </c>
       <c r="H11">
-        <v>13.9123071549377</v>
+        <v>517.298425</v>
       </c>
       <c r="I11">
-        <v>0.09046245801214881</v>
+        <v>0.7904037483947683</v>
       </c>
       <c r="J11">
-        <v>0.09046245801214881</v>
+        <v>0.8412832210590593</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.360093196324031</v>
+        <v>1.310681</v>
       </c>
       <c r="N11">
-        <v>0.360093196324031</v>
+        <v>2.621362</v>
       </c>
       <c r="O11">
-        <v>0.002381492780570517</v>
+        <v>0.008071344518960036</v>
       </c>
       <c r="P11">
-        <v>0.002381492780570517</v>
+        <v>0.005395412423470593</v>
       </c>
       <c r="Q11">
-        <v>5.009727151663202</v>
+        <v>226.0044056591417</v>
       </c>
       <c r="R11">
-        <v>5.009727151663202</v>
+        <v>1356.02643395485</v>
       </c>
       <c r="S11">
-        <v>0.0002154356906685959</v>
+        <v>0.006379620962371581</v>
       </c>
       <c r="T11">
-        <v>0.0002154356906685959</v>
+        <v>0.004539069942559406</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>13.9123071549377</v>
+        <v>0.08681966666666667</v>
       </c>
       <c r="H12">
-        <v>13.9123071549377</v>
+        <v>0.260459</v>
       </c>
       <c r="I12">
-        <v>0.09046245801214881</v>
+        <v>0.0003979671306811982</v>
       </c>
       <c r="J12">
-        <v>0.09046245801214881</v>
+        <v>0.0004235848707133055</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.0436919293360523</v>
+        <v>160.469513</v>
       </c>
       <c r="N12">
-        <v>0.0436919293360523</v>
+        <v>481.408539</v>
       </c>
       <c r="O12">
-        <v>0.0002889585677963607</v>
+        <v>0.9881921872772522</v>
       </c>
       <c r="P12">
-        <v>0.0002889585677963607</v>
+        <v>0.9908580394792582</v>
       </c>
       <c r="Q12">
-        <v>0.6078555411149928</v>
+        <v>13.93190962882233</v>
       </c>
       <c r="R12">
-        <v>0.6078555411149928</v>
+        <v>125.387186659401</v>
       </c>
       <c r="S12">
-        <v>2.613990230652894E-05</v>
+        <v>0.0003932680093323053</v>
       </c>
       <c r="T12">
-        <v>2.613990230652894E-05</v>
+        <v>0.0004197124745480609</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1207,867 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.08681966666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.260459</v>
+      </c>
+      <c r="I13">
+        <v>0.0003979671306811982</v>
+      </c>
+      <c r="J13">
+        <v>0.0004235848707133055</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.3902430000000001</v>
+      </c>
+      <c r="N13">
+        <v>1.170729</v>
+      </c>
+      <c r="O13">
+        <v>0.00240316728411606</v>
+      </c>
+      <c r="P13">
+        <v>0.002409650323426259</v>
+      </c>
+      <c r="Q13">
+        <v>0.03388076717900001</v>
+      </c>
+      <c r="R13">
+        <v>0.304926904611</v>
+      </c>
+      <c r="S13">
+        <v>9.563815886065961E-07</v>
+      </c>
+      <c r="T13">
+        <v>1.020691420712787E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.08681966666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.260459</v>
+      </c>
+      <c r="I14">
+        <v>0.0003979671306811982</v>
+      </c>
+      <c r="J14">
+        <v>0.0004235848707133055</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.1305423333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.391627</v>
+      </c>
+      <c r="O14">
+        <v>0.0008038967121994246</v>
+      </c>
+      <c r="P14">
+        <v>0.0008060653893535184</v>
+      </c>
+      <c r="Q14">
+        <v>0.01133364186588889</v>
+      </c>
+      <c r="R14">
+        <v>0.102002776793</v>
+      </c>
+      <c r="S14">
+        <v>3.199244679180539E-07</v>
+      </c>
+      <c r="T14">
+        <v>3.414371037357803E-07</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.08681966666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.260459</v>
+      </c>
+      <c r="I15">
+        <v>0.0003979671306811982</v>
+      </c>
+      <c r="J15">
+        <v>0.0004235848707133055</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.08596833333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.257905</v>
+      </c>
+      <c r="O15">
+        <v>0.0005294042074723974</v>
+      </c>
+      <c r="P15">
+        <v>0.0005308323844914145</v>
+      </c>
+      <c r="Q15">
+        <v>0.007463742043888889</v>
+      </c>
+      <c r="R15">
+        <v>0.06717367839499999</v>
+      </c>
+      <c r="S15">
+        <v>2.106854734183437E-07</v>
+      </c>
+      <c r="T15">
+        <v>2.248525669552314E-07</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.08681966666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.260459</v>
+      </c>
+      <c r="I16">
+        <v>0.0003979671306811982</v>
+      </c>
+      <c r="J16">
+        <v>0.0004235848707133055</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.310681</v>
+      </c>
+      <c r="N16">
+        <v>2.621362</v>
+      </c>
+      <c r="O16">
+        <v>0.008071344518960036</v>
+      </c>
+      <c r="P16">
+        <v>0.005395412423470593</v>
+      </c>
+      <c r="Q16">
+        <v>0.1137928875263334</v>
+      </c>
+      <c r="R16">
+        <v>0.6827573251580001</v>
+      </c>
+      <c r="S16">
+        <v>3.212129818949941E-06</v>
+      </c>
+      <c r="T16">
+        <v>2.285415073840753E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.06048866666666666</v>
+      </c>
+      <c r="H17">
+        <v>0.181466</v>
+      </c>
+      <c r="I17">
+        <v>0.0002772701397770639</v>
+      </c>
+      <c r="J17">
+        <v>0.0002951184337990267</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>160.469513</v>
+      </c>
+      <c r="N17">
+        <v>481.408539</v>
+      </c>
+      <c r="O17">
+        <v>0.9881921872772522</v>
+      </c>
+      <c r="P17">
+        <v>0.9908580394792582</v>
+      </c>
+      <c r="Q17">
+        <v>9.706586882019334</v>
+      </c>
+      <c r="R17">
+        <v>87.35928193817399</v>
+      </c>
+      <c r="S17">
+        <v>0.0002739961858929663</v>
+      </c>
+      <c r="T17">
+        <v>0.0002924204727282928</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.06048866666666666</v>
+      </c>
+      <c r="H18">
+        <v>0.181466</v>
+      </c>
+      <c r="I18">
+        <v>0.0002772701397770639</v>
+      </c>
+      <c r="J18">
+        <v>0.0002951184337990267</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.3902430000000001</v>
+      </c>
+      <c r="N18">
+        <v>1.170729</v>
+      </c>
+      <c r="O18">
+        <v>0.00240316728411606</v>
+      </c>
+      <c r="P18">
+        <v>0.002409650323426259</v>
+      </c>
+      <c r="Q18">
+        <v>0.023605278746</v>
+      </c>
+      <c r="R18">
+        <v>0.212447508714</v>
+      </c>
+      <c r="S18">
+        <v>6.663265287745271E-07</v>
+      </c>
+      <c r="T18">
+        <v>7.111322294528756E-07</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>13.9123071549377</v>
-      </c>
-      <c r="H13">
-        <v>13.9123071549377</v>
-      </c>
-      <c r="I13">
-        <v>0.09046245801214881</v>
-      </c>
-      <c r="J13">
-        <v>0.09046245801214881</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.0802056363119</v>
-      </c>
-      <c r="N13">
-        <v>1.0802056363119</v>
-      </c>
-      <c r="O13">
-        <v>0.007143989252419803</v>
-      </c>
-      <c r="P13">
-        <v>0.007143989252419803</v>
-      </c>
-      <c r="Q13">
-        <v>15.02815260286608</v>
-      </c>
-      <c r="R13">
-        <v>15.02815260286608</v>
-      </c>
-      <c r="S13">
-        <v>0.0006462628277862688</v>
-      </c>
-      <c r="T13">
-        <v>0.0006462628277862688</v>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.06048866666666666</v>
+      </c>
+      <c r="H19">
+        <v>0.181466</v>
+      </c>
+      <c r="I19">
+        <v>0.0002772701397770639</v>
+      </c>
+      <c r="J19">
+        <v>0.0002951184337990267</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.1305423333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.391627</v>
+      </c>
+      <c r="O19">
+        <v>0.0008038967121994246</v>
+      </c>
+      <c r="P19">
+        <v>0.0008060653893535184</v>
+      </c>
+      <c r="Q19">
+        <v>0.007896331686888889</v>
+      </c>
+      <c r="R19">
+        <v>0.071066985182</v>
+      </c>
+      <c r="S19">
+        <v>2.228965537578566E-07</v>
+      </c>
+      <c r="T19">
+        <v>2.37884755245613E-07</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.06048866666666666</v>
+      </c>
+      <c r="H20">
+        <v>0.181466</v>
+      </c>
+      <c r="I20">
+        <v>0.0002772701397770639</v>
+      </c>
+      <c r="J20">
+        <v>0.0002951184337990267</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.08596833333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.257905</v>
+      </c>
+      <c r="O20">
+        <v>0.0005294042074723974</v>
+      </c>
+      <c r="P20">
+        <v>0.0005308323844914145</v>
+      </c>
+      <c r="Q20">
+        <v>0.005200109858888888</v>
+      </c>
+      <c r="R20">
+        <v>0.04680098872999999</v>
+      </c>
+      <c r="S20">
+        <v>1.467879786044374E-07</v>
+      </c>
+      <c r="T20">
+        <v>1.56658421920909E-07</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.06048866666666666</v>
+      </c>
+      <c r="H21">
+        <v>0.181466</v>
+      </c>
+      <c r="I21">
+        <v>0.0002772701397770639</v>
+      </c>
+      <c r="J21">
+        <v>0.0002951184337990267</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.310681</v>
+      </c>
+      <c r="N21">
+        <v>2.621362</v>
+      </c>
+      <c r="O21">
+        <v>0.008071344518960036</v>
+      </c>
+      <c r="P21">
+        <v>0.005395412423470593</v>
+      </c>
+      <c r="Q21">
+        <v>0.07928134611533334</v>
+      </c>
+      <c r="R21">
+        <v>0.475688076692</v>
+      </c>
+      <c r="S21">
+        <v>2.237942822960888E-06</v>
+      </c>
+      <c r="T21">
+        <v>1.592285664114452E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>39.5815265</v>
+      </c>
+      <c r="H22">
+        <v>79.16305299999999</v>
+      </c>
+      <c r="I22">
+        <v>0.1814352339046085</v>
+      </c>
+      <c r="J22">
+        <v>0.1287429943686935</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>160.469513</v>
+      </c>
+      <c r="N22">
+        <v>481.408539</v>
+      </c>
+      <c r="O22">
+        <v>0.9881921872772522</v>
+      </c>
+      <c r="P22">
+        <v>0.9908580394792582</v>
+      </c>
+      <c r="Q22">
+        <v>6351.628281251594</v>
+      </c>
+      <c r="R22">
+        <v>38109.76968750956</v>
+      </c>
+      <c r="S22">
+        <v>0.1792928806413549</v>
+      </c>
+      <c r="T22">
+        <v>0.1275660309968528</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>39.5815265</v>
+      </c>
+      <c r="H23">
+        <v>79.16305299999999</v>
+      </c>
+      <c r="I23">
+        <v>0.1814352339046085</v>
+      </c>
+      <c r="J23">
+        <v>0.1287429943686935</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.3902430000000001</v>
+      </c>
+      <c r="N23">
+        <v>1.170729</v>
+      </c>
+      <c r="O23">
+        <v>0.00240316728411606</v>
+      </c>
+      <c r="P23">
+        <v>0.002409650323426259</v>
+      </c>
+      <c r="Q23">
+        <v>15.4464136459395</v>
+      </c>
+      <c r="R23">
+        <v>92.678481875637</v>
+      </c>
+      <c r="S23">
+        <v>0.0004360192183055</v>
+      </c>
+      <c r="T23">
+        <v>0.0003102255980193873</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>39.5815265</v>
+      </c>
+      <c r="H24">
+        <v>79.16305299999999</v>
+      </c>
+      <c r="I24">
+        <v>0.1814352339046085</v>
+      </c>
+      <c r="J24">
+        <v>0.1287429943686935</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.1305423333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.391627</v>
+      </c>
+      <c r="O24">
+        <v>0.0008038967121994246</v>
+      </c>
+      <c r="P24">
+        <v>0.0008060653893535184</v>
+      </c>
+      <c r="Q24">
+        <v>5.167064826205166</v>
+      </c>
+      <c r="R24">
+        <v>31.002388957231</v>
+      </c>
+      <c r="S24">
+        <v>0.0001458551880130483</v>
+      </c>
+      <c r="T24">
+        <v>0.0001037752718823388</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>39.5815265</v>
+      </c>
+      <c r="H25">
+        <v>79.16305299999999</v>
+      </c>
+      <c r="I25">
+        <v>0.1814352339046085</v>
+      </c>
+      <c r="J25">
+        <v>0.1287429943686935</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.08596833333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.257905</v>
+      </c>
+      <c r="O25">
+        <v>0.0005294042074723974</v>
+      </c>
+      <c r="P25">
+        <v>0.0005308323844914145</v>
+      </c>
+      <c r="Q25">
+        <v>3.402757863994166</v>
+      </c>
+      <c r="R25">
+        <v>20.416547183965</v>
+      </c>
+      <c r="S25">
+        <v>9.605257621283829E-05</v>
+      </c>
+      <c r="T25">
+        <v>6.834095068729832E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>39.5815265</v>
+      </c>
+      <c r="H26">
+        <v>79.16305299999999</v>
+      </c>
+      <c r="I26">
+        <v>0.1814352339046085</v>
+      </c>
+      <c r="J26">
+        <v>0.1287429943686935</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.310681</v>
+      </c>
+      <c r="N26">
+        <v>2.621362</v>
+      </c>
+      <c r="O26">
+        <v>0.008071344518960036</v>
+      </c>
+      <c r="P26">
+        <v>0.005395412423470593</v>
+      </c>
+      <c r="Q26">
+        <v>51.8787547345465</v>
+      </c>
+      <c r="R26">
+        <v>207.515018938186</v>
+      </c>
+      <c r="S26">
+        <v>0.001464426280722194</v>
+      </c>
+      <c r="T26">
+        <v>0.0006946215512516537</v>
       </c>
     </row>
   </sheetData>
